--- a/Sprint- Backlog_Act.xlsx
+++ b/Sprint- Backlog_Act.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ito\Documents\GitHub\Doc_PPTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pato\Documents\GitHub\Doc_PPTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Backlog" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>No Comenzado</t>
   </si>
@@ -241,37 +241,10 @@
     <t>Fernado</t>
   </si>
   <si>
-    <t>Funcionalidad Notificacion</t>
-  </si>
-  <si>
-    <t>Funcionalidad Social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login </t>
-  </si>
-  <si>
-    <t>Vercion Beta.1 Android</t>
-  </si>
-  <si>
-    <t>Vercion Beta.1 Ios</t>
-  </si>
-  <si>
-    <t>Vercion Beta.1 Escritorio</t>
-  </si>
-  <si>
     <t>Presentacion  App JJVV</t>
   </si>
   <si>
-    <t>Diseño de Iconos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manejo de Usuarios </t>
-  </si>
-  <si>
     <t>Retrolaimentacion JJVV</t>
-  </si>
-  <si>
-    <t>Pruebas JJVV</t>
   </si>
   <si>
     <t xml:space="preserve">Pruebas Instituciones </t>
@@ -302,6 +275,27 @@
   </si>
   <si>
     <t>holi</t>
+  </si>
+  <si>
+    <t>solucion de errores</t>
+  </si>
+  <si>
+    <t>cambio de diseño final</t>
+  </si>
+  <si>
+    <t>busqueda y agregado web</t>
+  </si>
+  <si>
+    <t>Publicacion</t>
+  </si>
+  <si>
+    <t>cambio de scroll a mapa interactivo</t>
+  </si>
+  <si>
+    <t>Detalle JJVV</t>
+  </si>
+  <si>
+    <t>Cliente web en tiempo real</t>
   </si>
 </sst>
 </file>
@@ -646,7 +640,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -898,6 +892,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -942,6 +939,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -979,9 +977,9 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Burndown Report'!$B$1:$I$1</c:f>
+              <c:f>'Burndown Report'!$B$1:$J$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Semana 1</c:v>
                 </c:pt>
@@ -1006,6 +1004,9 @@
                 <c:pt idx="7">
                   <c:v>Semana 8</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>Semana 9</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -1018,10 +1019,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Burndown Report'!$B$2:$I$2</c:f>
+              <c:f>'Burndown Report'!$B$2:$J$2</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1044,6 +1045,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1082,9 +1086,9 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Burndown Report'!$B$1:$I$1</c:f>
+              <c:f>'Burndown Report'!$B$1:$J$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Semana 1</c:v>
                 </c:pt>
@@ -1109,6 +1113,9 @@
                 <c:pt idx="7">
                   <c:v>Semana 8</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>Semana 9</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -1121,10 +1128,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Burndown Report'!$B$3:$I$3</c:f>
+              <c:f>'Burndown Report'!$B$3:$J$3</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1147,7 +1154,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1185,9 +1195,9 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Burndown Report'!$B$1:$I$1</c:f>
+              <c:f>'Burndown Report'!$B$1:$J$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Semana 1</c:v>
                 </c:pt>
@@ -1212,6 +1222,9 @@
                 <c:pt idx="7">
                   <c:v>Semana 8</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>Semana 9</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -1224,10 +1237,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Burndown Report'!$B$4:$I$4</c:f>
+              <c:f>'Burndown Report'!$B$4:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>17</c:v>
                 </c:pt>
@@ -1250,7 +1263,10 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1310,6 +1326,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1323,7 +1340,7 @@
             <a:pPr lvl="0">
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1066560748"/>
@@ -1369,6 +1386,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1387,7 +1405,7 @@
             <a:pPr lvl="0">
               <a:defRPr sz="1200"/>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1336769584"/>
@@ -1402,6 +1420,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1451,6 +1470,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1485,7 +1505,7 @@
           </c:marker>
           <c:cat>
             <c:strLit>
-              <c:ptCount val="8"/>
+              <c:ptCount val="9"/>
               <c:pt idx="0">
                 <c:v>1</c:v>
               </c:pt>
@@ -1510,6 +1530,9 @@
               <c:pt idx="7">
                 <c:v>8</c:v>
               </c:pt>
+              <c:pt idx="8">
+                <c:v>9</c:v>
+              </c:pt>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:autoCat val="1"/>
@@ -1526,33 +1549,36 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Burndown Report'!$B$6:$I$6</c:f>
+              <c:f>'Burndown Report'!$B$6:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>223</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>204</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>174</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1579,7 +1605,7 @@
           </c:marker>
           <c:cat>
             <c:strLit>
-              <c:ptCount val="8"/>
+              <c:ptCount val="9"/>
               <c:pt idx="0">
                 <c:v>1</c:v>
               </c:pt>
@@ -1604,6 +1630,9 @@
               <c:pt idx="7">
                 <c:v>8</c:v>
               </c:pt>
+              <c:pt idx="8">
+                <c:v>9</c:v>
+              </c:pt>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:autoCat val="1"/>
@@ -1620,10 +1649,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Burndown Report'!$B$7:$I$7</c:f>
+              <c:f>'Burndown Report'!$B$7:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>240</c:v>
                 </c:pt>
@@ -1647,6 +1676,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1694,6 +1726,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1707,7 +1740,7 @@
             <a:pPr lvl="0">
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1155326048"/>
@@ -1751,7 +1784,7 @@
             <a:pPr lvl="0">
               <a:defRPr sz="1200"/>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="574951040"/>
@@ -1761,6 +1794,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3923,9 +3957,9 @@
   </sheetPr>
   <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5658,15 +5692,9 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D44" s="83">
-        <v>3</v>
-      </c>
-      <c r="E44" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="F44" s="68" t="s">
-        <v>72</v>
-      </c>
+      <c r="D44" s="83"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="68"/>
       <c r="G44" s="83">
         <v>0</v>
       </c>
@@ -5697,15 +5725,9 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D45" s="84">
-        <v>2</v>
-      </c>
-      <c r="E45" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="F45" s="64" t="s">
-        <v>72</v>
-      </c>
+      <c r="D45" s="84"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="64"/>
       <c r="G45" s="84">
         <v>0</v>
       </c>
@@ -5736,15 +5758,9 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D46" s="84">
-        <v>5</v>
-      </c>
-      <c r="E46" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="F46" s="64" t="s">
-        <v>18</v>
-      </c>
+      <c r="D46" s="84"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="64"/>
       <c r="G46" s="84">
         <v>0</v>
       </c>
@@ -5775,15 +5791,9 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D47" s="84">
-        <v>5</v>
-      </c>
-      <c r="E47" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="F47" s="64" t="s">
-        <v>35</v>
-      </c>
+      <c r="D47" s="84"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="64"/>
       <c r="G47" s="84">
         <v>0</v>
       </c>
@@ -5821,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="40" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J48" s="64" t="s">
         <v>18</v>
@@ -5851,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="40" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J49" s="64" t="s">
         <v>18</v>
@@ -5877,9 +5887,11 @@
       <c r="G50" s="84">
         <v>5</v>
       </c>
-      <c r="H50" s="84"/>
+      <c r="H50" s="84">
+        <v>5</v>
+      </c>
       <c r="I50" s="40" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J50" s="64" t="s">
         <v>45</v>
@@ -5909,7 +5921,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="40" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J51" s="64" t="s">
         <v>34</v>
@@ -5932,15 +5944,9 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="80">
-        <v>5</v>
-      </c>
-      <c r="E52" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F52" s="65" t="s">
-        <v>34</v>
-      </c>
+      <c r="D52" s="80"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="65"/>
       <c r="G52" s="80">
         <v>0</v>
       </c>
@@ -5971,15 +5977,18 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D53" s="84">
+      <c r="A53">
         <v>5</v>
       </c>
-      <c r="E53" s="40" t="s">
-        <v>81</v>
+      <c r="B53" t="s">
+        <v>90</v>
       </c>
-      <c r="F53" s="64" t="s">
-        <v>72</v>
+      <c r="C53" t="s">
+        <v>45</v>
       </c>
+      <c r="D53" s="84"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="64"/>
       <c r="G53" s="84">
         <v>0</v>
       </c>
@@ -6004,21 +6013,21 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D54" s="84">
+      <c r="D54" s="84"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="84">
         <v>5</v>
       </c>
-      <c r="E54" s="40" t="s">
-        <v>73</v>
+      <c r="H54" s="115">
+        <v>5</v>
       </c>
-      <c r="F54" s="64" t="s">
+      <c r="I54" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="J54" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="G54" s="84">
-        <v>0</v>
-      </c>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="69"/>
       <c r="K54" s="39"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -6037,21 +6046,21 @@
       <c r="Z54" s="1"/>
     </row>
     <row r="55" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D55" s="84">
+      <c r="D55" s="84"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="84">
+        <v>7</v>
+      </c>
+      <c r="H55" s="39">
         <v>5</v>
       </c>
-      <c r="E55" s="40" t="s">
-        <v>74</v>
+      <c r="I55" s="49" t="s">
+        <v>89</v>
       </c>
-      <c r="F55" s="64" t="s">
+      <c r="J55" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="G55" s="84">
-        <v>0</v>
-      </c>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="69"/>
       <c r="K55" s="39"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -6077,10 +6086,10 @@
         <v>5</v>
       </c>
       <c r="I56" s="25" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="J56" s="65" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="K56" s="23"/>
       <c r="L56" s="1"/>
@@ -6100,26 +6109,26 @@
       <c r="Z56" s="1"/>
     </row>
     <row r="57" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="83">
-        <v>5</v>
-      </c>
-      <c r="B57" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="C57" s="66" t="s">
-        <v>18</v>
-      </c>
+      <c r="A57" s="83"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="66"/>
       <c r="D57" s="83">
         <v>0</v>
       </c>
       <c r="E57" s="85"/>
       <c r="F57" s="87"/>
       <c r="G57" s="83">
-        <v>0</v>
+        <v>5</v>
       </c>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="68"/>
+      <c r="H57" s="37">
+        <v>5</v>
+      </c>
+      <c r="I57" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="J57" s="68" t="s">
+        <v>18</v>
+      </c>
       <c r="K57" s="37"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -6138,26 +6147,26 @@
       <c r="Z57" s="1"/>
     </row>
     <row r="58" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="84">
-        <v>5</v>
-      </c>
-      <c r="B58" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" s="64" t="s">
-        <v>35</v>
-      </c>
+      <c r="A58" s="84"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="64"/>
       <c r="D58" s="84">
         <v>0</v>
       </c>
       <c r="E58" s="39"/>
       <c r="F58" s="85"/>
       <c r="G58" s="84">
-        <v>0</v>
+        <v>5</v>
       </c>
-      <c r="H58" s="39"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="69"/>
+      <c r="H58" s="39">
+        <v>5</v>
+      </c>
+      <c r="I58" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="J58" s="69" t="s">
+        <v>35</v>
+      </c>
       <c r="K58" s="39"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -6176,25 +6185,25 @@
       <c r="Z58" s="1"/>
     </row>
     <row r="59" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="84">
-        <v>5</v>
-      </c>
-      <c r="B59" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C59" s="64" t="s">
-        <v>34</v>
-      </c>
+      <c r="A59" s="84"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="64"/>
       <c r="D59" s="84">
         <v>0</v>
       </c>
       <c r="E59" s="39"/>
       <c r="G59" s="84">
-        <v>0</v>
+        <v>5</v>
       </c>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="69"/>
+      <c r="H59" s="54">
+        <v>5</v>
+      </c>
+      <c r="I59" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="J59" s="69" t="s">
+        <v>34</v>
+      </c>
       <c r="K59" s="39"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -6213,15 +6222,9 @@
       <c r="Z59" s="1"/>
     </row>
     <row r="60" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="80">
-        <v>5</v>
-      </c>
-      <c r="B60" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C60" s="65" t="s">
-        <v>45</v>
-      </c>
+      <c r="A60" s="80"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="65"/>
       <c r="D60" s="80">
         <v>0</v>
       </c>
@@ -6255,10 +6258,10 @@
         <v>5</v>
       </c>
       <c r="B61" s="50" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C61" s="68" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D61" s="83">
         <v>0</v>
@@ -6293,7 +6296,7 @@
         <v>5</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C62" s="64" t="s">
         <v>35</v>
@@ -6331,7 +6334,7 @@
         <v>5</v>
       </c>
       <c r="B63" s="40" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C63" s="64" t="s">
         <v>18</v>
@@ -6369,7 +6372,7 @@
         <v>5</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C64" s="65" t="s">
         <v>34</v>
@@ -6407,10 +6410,10 @@
         <v>20</v>
       </c>
       <c r="B65" s="46" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C65" s="71" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D65" s="88">
         <v>0</v>
@@ -6445,10 +6448,10 @@
         <v>20</v>
       </c>
       <c r="B66" s="46" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C66" s="71" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D66" s="88">
         <v>0</v>
@@ -6481,7 +6484,7 @@
     <row r="67" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="105">
         <f>SUM(A3:A66)</f>
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B67" s="72" t="s">
         <v>7</v>
@@ -6489,7 +6492,7 @@
       <c r="C67" s="65"/>
       <c r="D67" s="90">
         <f>SUM(D3:D66)</f>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E67" s="72" t="s">
         <v>8</v>
@@ -6497,7 +6500,7 @@
       <c r="F67" s="86"/>
       <c r="G67" s="104">
         <f>SUM(G3:G66)</f>
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="H67" s="72" t="s">
         <v>9</v>
@@ -6634,7 +6637,7 @@
       <c r="A72" s="53"/>
       <c r="B72" s="49">
         <f>SUM(A67+D67+G67)</f>
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="C72" s="49"/>
       <c r="D72" s="53"/>
@@ -31849,8 +31852,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -32017,12 +32020,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="18">
-        <f>SUM('Sprint Backlog'!G33:G38)</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J3" s="18">
-        <f>SUM('Sprint Backlog'!H33:H38)</f>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K3" s="18">
         <f>SUM('Sprint Backlog'!I33:I38)</f>
@@ -32082,10 +32083,10 @@
         <v>20</v>
       </c>
       <c r="I4" s="18">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J4" s="18">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K4" s="18">
         <v>0</v>
@@ -32098,7 +32099,7 @@
       </c>
       <c r="N4" s="19"/>
       <c r="O4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="P4" s="18"/>
       <c r="Q4" s="19"/>
@@ -32144,10 +32145,10 @@
         <v>20</v>
       </c>
       <c r="I5" s="18">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J5" s="18">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K5" s="18">
         <v>0</v>
@@ -32176,32 +32177,31 @@
         <v>11</v>
       </c>
       <c r="B6" s="19">
-        <f>B7-B5</f>
+        <v>240</v>
+      </c>
+      <c r="C6" s="19">
+        <f>B6-B4</f>
         <v>223</v>
       </c>
-      <c r="C6" s="19">
-        <f t="shared" ref="C6:J6" si="1">B6-C5</f>
+      <c r="D6" s="19">
+        <f t="shared" ref="D6:M6" si="1">C6-C4</f>
         <v>217</v>
       </c>
-      <c r="D6" s="19">
+      <c r="E6" s="19">
         <f t="shared" si="1"/>
         <v>204</v>
       </c>
-      <c r="E6" s="19">
+      <c r="F6" s="19">
         <f t="shared" si="1"/>
         <v>174</v>
       </c>
-      <c r="F6" s="19">
+      <c r="G6" s="19">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="G6" s="19">
+      <c r="H6" s="19">
         <f t="shared" si="1"/>
         <v>130</v>
-      </c>
-      <c r="H6" s="19">
-        <f t="shared" si="1"/>
-        <v>110</v>
       </c>
       <c r="I6" s="19">
         <f t="shared" si="1"/>
@@ -32209,11 +32209,20 @@
       </c>
       <c r="J6" s="19">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>86</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
+      <c r="K6" s="19">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="L6" s="19">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="M6" s="19">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
       <c r="N6" s="10"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>

--- a/Sprint- Backlog_Act.xlsx
+++ b/Sprint- Backlog_Act.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Backlog" sheetId="1" state="visible" r:id="rId2"/>
@@ -1123,7 +1123,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1492,11 +1492,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="91316984"/>
-        <c:axId val="3148169"/>
+        <c:axId val="804381"/>
+        <c:axId val="79187924"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91316984"/>
+        <c:axId val="804381"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1555,14 +1555,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3148169"/>
+        <c:crossAx val="79187924"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="3148169"/>
+        <c:axId val="79187924"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1628,7 +1628,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91316984"/>
+        <c:crossAx val="804381"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1664,7 +1664,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1856,11 +1856,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="9172248"/>
-        <c:axId val="69779648"/>
+        <c:axId val="57483358"/>
+        <c:axId val="66329993"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="9172248"/>
+        <c:axId val="57483358"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1919,14 +1919,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69779648"/>
+        <c:crossAx val="66329993"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69779648"/>
+        <c:axId val="66329993"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -1966,7 +1966,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9172248"/>
+        <c:crossAx val="57483358"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3572,15 +3572,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>581040</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:colOff>546480</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>29520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>57240</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>399960</xdr:rowOff>
+      <xdr:colOff>22680</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>67320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3589,7 +3589,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11458440" y="10934640"/>
+          <a:off x="11423880" y="10440000"/>
           <a:ext cx="1299240" cy="361800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3708,7 +3708,7 @@
   </sheetPr>
   <dimension ref="A1:Z76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="I65" activeCellId="0" sqref="I65"/>
@@ -7472,7 +7472,7 @@
   </sheetPr>
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O5" activeCellId="0" sqref="O5"/>
     </sheetView>
   </sheetViews>
